--- a/bots/crawl_ch/output/electronics_2022-07-22.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-22.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:36</t>
+          <t>2022-07-22 20:57:25</t>
         </is>
       </c>
     </row>
